--- a/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,13 +1167,787 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1941,13 +1984,1145 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008949</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>平安匠心优选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>53.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2289</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006081</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3972</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="4">
@@ -580,530 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1800</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1240</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011448</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银证券均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1087</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501099</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1053</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011807</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平安研究精选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008950</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安匠心优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009671</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安恒泽混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005826</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏潜龙精选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001223</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华文化传媒娱乐股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011449</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银证券均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011808</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>平安研究精选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009672</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安恒泽混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.27</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.58</v>
       </c>
     </row>
   </sheetData>
@@ -1112,6 +532,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,13 +2467,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1946,36 +2524,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010887</t>
+          <t>008949</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方消费升级混合A</t>
+          <t>平安匠心优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>53.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>83.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6338</t>
+          <t>2.2289</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1984,36 +2562,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>006081</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>海富通电子信息传媒产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4333</t>
+          <t>0.3972</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2022,17 +2600,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>006080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>海富通电子信息传媒产业股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2042,16 +2620,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4149</t>
+          <t>0.1800</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2060,36 +2638,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003956</t>
+          <t>000739</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方现代教育股票</t>
+          <t>平安新鑫先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2007</t>
+          <t>0.1240</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2098,12 +2676,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010888</t>
+          <t>011448</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方消费升级混合C</t>
+          <t>中银证券均衡成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2113,21 +2691,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>88.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1778</t>
+          <t>0.1087</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2136,36 +2714,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>501099</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1592</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2174,36 +2752,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>011807</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>平安研究精选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.05</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1122</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2212,36 +2790,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>217001</t>
+          <t>008950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安泰混合</t>
+          <t>平安匠心优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.22</t>
+          <t>83.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1072</t>
+          <t>0.0676</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2250,36 +2828,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002537</t>
+          <t>009671</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平安安盈灵活配置混合</t>
+          <t>平安恒泽混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.86</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0974</t>
+          <t>0.0666</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2288,36 +2866,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011807</t>
+          <t>005826</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>平安研究精选混合型证券投资基金A</t>
+          <t>华夏潜龙精选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2326,36 +2904,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>050012</t>
+          <t>001515</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时策略混合</t>
+          <t>平安新鑫先锋混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0887</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2364,36 +2942,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009217</t>
+          <t>001223</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+          <t>鹏华文化传媒娱乐股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.31</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2402,36 +2980,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001223</t>
+          <t>011449</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华文化传媒娱乐股票</t>
+          <t>中银证券均衡成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>88.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0533</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2450,22 +3028,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2478,36 +3056,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>012153</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时研究慧选混合型证券投资基金A</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.55</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0399</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2516,614 +3094,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>167002</t>
+          <t>009672</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安鼎越灵活配置混合（LOF）</t>
+          <t>平安恒泽混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010427</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004677</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010428</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>014051</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>平安安盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.86</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>012154</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时研究慧选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>76.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006457</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>平安估值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>58.87</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009218</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.31</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>014581</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006458</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>平安估值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>58.87</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006857</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>80.87</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011982</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时内需增长混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>76.05</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006858</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>80.87</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.58</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>2.86</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.58</v>
       </c>
     </row>
@@ -532,6 +549,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015797</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015796</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1689,7 +2256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2467,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688533-上声电子.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.86</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.58</v>
       </c>
     </row>
@@ -549,6 +566,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015797</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015796</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,7 +1589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2256,7 +2747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3034,7 +3525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
